--- a/C语言课程讲义_笔记/B站鹏哥/2024_8_23 P105 C语言进阶 字符指针和指针数组.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_8_23 P105 C语言进阶 字符指针和指针数组.xlsx
@@ -16,9 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>这里的p存的还是首字符的地址，而不是一整个字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面必须要把元素数量写清楚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,15 +394,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>56780</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>95004</xdr:rowOff>
+      <xdr:colOff>152030</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>114054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -415,7 +419,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8067675" y="24183975"/>
+          <a:off x="8162925" y="24031575"/>
           <a:ext cx="2961905" cy="1971429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -428,15 +432,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>294433</xdr:colOff>
+      <xdr:colOff>256333</xdr:colOff>
       <xdr:row>151</xdr:row>
-      <xdr:rowOff>171202</xdr:rowOff>
+      <xdr:rowOff>133102</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -453,7 +457,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11391900" y="24079200"/>
+          <a:off x="11353800" y="24041100"/>
           <a:ext cx="6733333" cy="1980952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -466,13 +470,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>152</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>446405</xdr:colOff>
+      <xdr:colOff>360680</xdr:colOff>
       <xdr:row>167</xdr:row>
       <xdr:rowOff>66363</xdr:rowOff>
     </xdr:to>
@@ -491,8 +495,122 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8115300" y="26203275"/>
+          <a:off x="8029575" y="26203275"/>
           <a:ext cx="10161905" cy="2495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>246159</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>161123</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="28889325"/>
+          <a:ext cx="11923809" cy="6419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>379932</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>8940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="35794950"/>
+          <a:ext cx="8542857" cy="4676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>399338</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>94973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10477500" y="36280725"/>
+          <a:ext cx="5695238" cy="2219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -791,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="K9"/>
+  <dimension ref="K9:Y219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="X178" sqref="X178:Y178"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="Q238" sqref="Q238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -802,6 +920,11 @@
     <row r="9" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K9" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="25:25" x14ac:dyDescent="0.15">
+      <c r="Y219" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
